--- a/Base/Teams/Buccaneers/2021 Team Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Buccaneers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E7FB8402A6BC5D3E0E605F90C6428663DED7EBA2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAABF24F-34C9-41B8-B4A1-D18BE1324329}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13</t>
-  </si>
-  <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10</t>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3</t>
+  </si>
+  <si>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +167,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>51 50 44 56 76 64 67 74 73 64 64 69</t>
-  </si>
-  <si>
-    <t>13 19 14 45 27 0 25 33 36 28 19 72</t>
+    <t>51 50 44 56 76 64 67 74 73 64 64 69 67</t>
+  </si>
+  <si>
+    <t>13 19 14 45 27 0 25 33 36 28 19 72 30</t>
   </si>
   <si>
     <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12</t>
   </si>
   <si>
-    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55</t>
-  </si>
-  <si>
-    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13</t>
-  </si>
-  <si>
-    <t>0 24 7 0 0 0 0 0 4 0 0 10 0 5 12 0 0 0 0 12 0 4 0 5 43 0 0 0 0 3 11 10 4 0 0 9 0 0 -1 4</t>
+    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32</t>
+  </si>
+  <si>
+    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -668,28 +718,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>31</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -704,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="O2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -721,37 +771,37 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="M3">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="N3">
         <v>6</v>
@@ -763,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>381</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,36 +985,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>37</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +1026,7 @@
         <v>147</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -988,7 +1038,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -996,37 +1046,37 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J3">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="M3">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -1038,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>370</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,27 +1262,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1239,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L2">
         <v>115</v>
@@ -1263,12 +1315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,28 +1371,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1357,21 +1409,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1380,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,51 +1450,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Buccaneers/2021 Team Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Buccaneers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E7FB8402A6BC5D3E0E605F90C6428663DED7EBA2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAABF24F-34C9-41B8-B4A1-D18BE1324329}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3</t>
-  </si>
-  <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30</t>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58</t>
+  </si>
+  <si>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,19 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>51 50 44 56 76 64 67 74 73 64 64 69 67</t>
-  </si>
-  <si>
-    <t>13 19 14 45 27 0 25 33 36 28 19 72 30</t>
-  </si>
-  <si>
-    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12</t>
-  </si>
-  <si>
-    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32</t>
-  </si>
-  <si>
-    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0</t>
+    <t>51 50 44 56 76 64 67 74 73 64 64 69 67 69</t>
+  </si>
+  <si>
+    <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29</t>
+  </si>
+  <si>
+    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7</t>
+  </si>
+  <si>
+    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47</t>
+  </si>
+  <si>
+    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5</t>
+  </si>
+  <si>
+    <t>0 0 10 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -718,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -739,31 +689,31 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="M2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="N2">
         <v>9</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2">
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -771,28 +721,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -804,7 +754,7 @@
         <v>213</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,19 +943,19 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1014,60 +964,60 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="M2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="N2">
         <v>21</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1079,7 +1029,7 @@
         <v>178</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,27 +1210,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1291,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L2">
         <v>115</v>
@@ -1315,12 +1263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,28 +1319,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1400,16 +1348,16 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1432,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Buccaneers/2021 Team Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58</t>
-  </si>
-  <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3</t>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 3 6 2 3 5 2 -1 6 6 3 8 0 3 12 30 2 3 2 6 0 17</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 5 7 7 -2 3 23 5 8 1 5 5 6 14 19 7 5 8 5 16 6 10 3 6 18 11 13</t>
+  </si>
+  <si>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 -1 4 -3 5 -2 1 1 9 2 2 6 6 3 -1 3 8 0 0 7 3 -1 4 1 1 -1 3 -3 1 0 -5</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 8 9 7 40 6 7 33 8 4 3 17 5 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29</t>
   </si>
   <si>
-    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7</t>
-  </si>
-  <si>
-    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47</t>
-  </si>
-  <si>
-    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5</t>
-  </si>
-  <si>
-    <t>0 0 10 0 0 0 0 0</t>
+    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7 17 22</t>
+  </si>
+  <si>
+    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47 40 53 48 45 39 42 30 39</t>
+  </si>
+  <si>
+    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5 0 34 0 0 4 8 0 0</t>
+  </si>
+  <si>
+    <t>0 0 10 0 0 0 0 0 6 11 3 2 9 10 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -677,19 +677,19 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>170</v>
       </c>
       <c r="N2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2">
         <v>7</v>
@@ -721,37 +721,37 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>11</v>
       </c>
       <c r="I3">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="M3">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>450</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
       <c r="J2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>183</v>
       </c>
       <c r="N2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2">
         <v>19</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M3">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>443</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1245,7 +1245,7 @@
         <v>173</v>
       </c>
       <c r="L2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M2">
         <v>87</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>

--- a/Base/Teams/Buccaneers/2021 Team Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 3 6 2 3 5 2 -1 6 6 3 8 0 3 12 30 2 3 2 6 0 17</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 5 7 7 -2 3 23 5 8 1 5 5 6 14 19 7 5 8 5 16 6 10 3 6 18 11 13</t>
-  </si>
-  <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 -1 4 -3 5 -2 1 1 9 2 2 6 6 3 -1 3 8 0 0 7 3 -1 4 1 1 -1 3 -3 1 0 -5</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 8 9 7 40 6 7 33 8 4 3 17 5 7</t>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 3 6 2 3 5 2 -1 6 6 3 8 0 3 12 30 2 3 2 6 0 17 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 5 7 7 -2 3 23 5 8 1 5 5 6 14 19 7 5 8 5 16 6 10 3 6 18 11 13 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10</t>
+  </si>
+  <si>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 -1 4 -3 5 -2 1 1 9 2 2 6 6 3 -1 3 8 0 0 7 3 -1 4 1 1 -1 3 -3 1 0 -5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 8 9 7 40 6 7 33 8 4 3 17 5 7 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>51 50 44 56 76 64 67 74 73 64 64 69 67 69</t>
-  </si>
-  <si>
-    <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29</t>
+    <t>51 50 44 56 76 64 67 74 73 64 64 69 67 69 66 65 60</t>
+  </si>
+  <si>
+    <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29 27 25 26</t>
   </si>
   <si>
     <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7 17 22</t>
   </si>
   <si>
-    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47 40 53 48 45 39 42 30 39</t>
-  </si>
-  <si>
-    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5 0 34 0 0 4 8 0 0</t>
-  </si>
-  <si>
-    <t>0 0 10 0 0 0 0 0 6 11 3 2 9 10 0 0 0</t>
+    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47 40 53 48 45 39 42 30 39 45 40 38</t>
+  </si>
+  <si>
+    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5 0 34 0 0 4 8 0 0 16 6 0</t>
+  </si>
+  <si>
+    <t>0 0 10 0 0 0 0 0 6 11 3 2 9 10 0 0 0 4 9 20 6 5</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -689,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M3">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>525</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -952,10 +952,10 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>183</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P2">
         <v>11</v>
@@ -996,37 +996,37 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G3">
         <v>41</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="M3">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>505</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -1215,40 +1215,40 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N2">
         <v>40</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,10 +1365,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1431,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>

--- a/Base/Teams/Buccaneers/2021 Team Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 3 6 2 3 5 2 -1 6 6 3 8 0 3 12 30 2 3 2 6 0 17 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 5 7 7 -2 3 23 5 8 1 5 5 6 14 19 7 5 8 5 16 6 10 3 6 18 11 13 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10</t>
-  </si>
-  <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 -1 4 -3 5 -2 1 1 9 2 2 6 6 3 -1 3 8 0 0 7 3 -1 4 1 1 -1 3 -3 1 0 -5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 8 9 7 40 6 7 33 8 4 3 17 5 7 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6</t>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 3 6 2 3 5 2 -1 6 6 3 8 0 3 12 30 2 3 2 6 0 17 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1 6 3 4 6 6 -1 7 5 4 -5 5 -2 5 -4 1 2 3 11 4 0 2</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 5 7 7 -2 3 23 5 8 1 5 5 6 14 19 7 5 8 5 16 6 10 3 6 18 11 13 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10 1 4 9 15 7 4 31 21 3 2 21 14 6 24 14 9 8 20 14 1 8 32 9 21 3 12 8 3 6 6 27 10 33</t>
+  </si>
+  <si>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 -1 4 -3 5 -2 1 1 9 2 2 6 6 3 -1 3 8 0 0 7 3 -1 4 1 1 -1 3 -3 1 0 -5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11 55 2 0 1 -1 14 2 1 4 12 1 9 0 -1 0 1 0 0 11 7 2 4 22 -1 5</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 8 9 7 40 6 7 33 8 4 3 17 5 7 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6 9 9 13 5 9 12 5 9 24 11 24 19 2 23 11 21 14 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>51 50 44 56 76 64 67 74 73 64 64 69 67 69 66 65 60</t>
-  </si>
-  <si>
-    <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29 27 25 26</t>
-  </si>
-  <si>
-    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7 17 22</t>
-  </si>
-  <si>
-    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47 40 53 48 45 39 42 30 39 45 40 38</t>
-  </si>
-  <si>
-    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5 0 34 0 0 4 8 0 0 16 6 0</t>
-  </si>
-  <si>
-    <t>0 0 10 0 0 0 0 0 6 11 3 2 9 10 0 0 0 4 9 20 6 5</t>
+    <t>51 50 44 56 76 64 67 74 73 64 64 69 67 69 66 65 60 63 66 61 60 63</t>
+  </si>
+  <si>
+    <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29 27 25 26 26 27 13 25 28</t>
+  </si>
+  <si>
+    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7 17 22 7</t>
+  </si>
+  <si>
+    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47 40 53 48 45 39 42 30 39 45 40 38 35 39 30</t>
+  </si>
+  <si>
+    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5 0 34 0 0 4 8 0 0 16 6 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 10 0 0 0 0 0 6 11 3 2 9 10 0 0 0 4 9 20 6 5 0 0 3 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,10 +665,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -689,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>170</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2">
         <v>398</v>
@@ -721,37 +721,37 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="M3">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>594</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>183</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2">
         <v>11</v>
@@ -996,16 +996,16 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G3">
         <v>41</v>
@@ -1014,19 +1014,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="M3">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>575</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L2">
         <v>118</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Buccaneers/2021 Team Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 3 6 2 3 5 2 -1 6 6 3 8 0 3 12 30 2 3 2 6 0 17 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1 6 3 4 6 6 -1 7 5 4 -5 5 -2 5 -4 1 2 3 11 4 0 2</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 5 7 7 -2 3 23 5 8 1 5 5 6 14 19 7 5 8 5 16 6 10 3 6 18 11 13 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10 1 4 9 15 7 4 31 21 3 2 21 14 6 24 14 9 8 20 14 1 8 32 9 21 3 12 8 3 6 6 27 10 33</t>
-  </si>
-  <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 -1 4 -3 5 -2 1 1 9 2 2 6 6 3 -1 3 8 0 0 7 3 -1 4 1 1 -1 3 -3 1 0 -5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11 55 2 0 1 -1 14 2 1 4 12 1 9 0 -1 0 1 0 0 11 7 2 4 22 -1 5</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 8 9 7 40 6 7 33 8 4 3 17 5 7 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6 9 9 13 5 9 12 5 9 24 11 24 19 2 23 11 21 14 4</t>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 3 6 2 3 5 2 -1 6 6 3 8 0 3 12 30 2 3 2 6 0 17 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1 6 3 4 6 6 -1 7 5 4 -5 5 -2 5 -4 1 2 3 11 4 0 2 9 2 3 2 3 1 6 2 1 0 3 7 4 -2 33 17 3 2 2 2 2 3 2 1 5 6 -1 5 7 -2 2 8 7 -2 7 -5 6 5 2 9 3 3 3 5 1</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 5 7 7 -2 3 23 5 8 1 5 5 6 14 19 7 5 8 5 16 6 10 3 6 18 11 13 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10 1 4 9 15 7 4 31 21 3 2 21 14 6 24 14 9 8 20 14 1 8 32 9 21 3 12 8 3 6 6 27 10 33 5 5 3 7 0 37 7 20 24 1 42 19 0 7 5 10 4 7 9 7 14 5 3 28 7 9 20 7 8 2 6 9 3 8 5 13 8 17 16 8 18 9 8 5 13 -4 4 3 22 5 17 2 36 16 3 5 6</t>
+  </si>
+  <si>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 -1 4 -3 5 -2 1 1 9 2 2 6 6 3 -1 3 8 0 0 7 3 -1 4 1 1 -1 3 -3 1 0 -5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11 55 2 0 1 -1 14 2 1 4 12 1 9 0 -1 0 1 0 0 11 7 2 4 22 -1 5 3 5 1 -2 10 4 2 -1 2 6 7 19 9 2 -1 2 5 15 4 2 0 3 1 7 -3 9 -5 2 11 6 -1 9 2 14 -4 -3 34 6 5 6</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 8 9 7 40 6 7 33 8 4 3 17 5 7 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6 9 9 13 5 9 12 5 9 24 11 24 19 2 23 11 21 14 4 20 11 6 7 3 2 19 8 3 -2 18 9 1 13 5 1 6 17 6 9 5 15 6 4 3 1 6 0 3 16 1 32 35 6 0 10 28 2 5 7 31 19 17 4 20 16 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>51 50 44 56 76 64 67 74 73 64 64 69 67 69 66 65 60 63 66 61 60 63</t>
-  </si>
-  <si>
-    <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29 27 25 26 26 27 13 25 28</t>
-  </si>
-  <si>
-    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7 17 22 7</t>
-  </si>
-  <si>
-    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47 40 53 48 45 39 42 30 39 45 40 38 35 39 30</t>
-  </si>
-  <si>
-    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5 0 34 0 0 4 8 0 0 16 6 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 10 0 0 0 0 0 6 11 3 2 9 10 0 0 0 4 9 20 6 5 0 0 3 0</t>
+    <t>51 50 44 56 76 64 67 74 73 64 64 69 67 69 66 65 60 63 66 61 60 63 65 62 60 55 64 64 61</t>
+  </si>
+  <si>
+    <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29 27 25 26 26 27 13 25 28 20 29 39 17 16 16 24</t>
+  </si>
+  <si>
+    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7 17 22 7 24 17 34 18</t>
+  </si>
+  <si>
+    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47 40 53 48 45 39 42 30 39 45 40 38 35 39 30 45 42 46 31 50 61 45 61</t>
+  </si>
+  <si>
+    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5 0 34 0 0 4 8 0 0 16 6 0 0 0 0 0 0 0 0 5 0 -1 31</t>
+  </si>
+  <si>
+    <t>0 0 10 0 0 0 0 0 6 11 3 2 9 10 0 0 0 4 9 20 6 5 0 0 3 0 0 4 0 0 1 0 8 4</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="M2">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="N2">
         <v>15</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>398</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>290</v>
       </c>
       <c r="N3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="M2">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="N2">
         <v>31</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>393</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>231</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N2">
         <v>40</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Buccaneers/2021 Team Data.xlsx
+++ b/Base/Teams/Buccaneers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 3 6 2 3 5 2 -1 6 6 3 8 0 3 12 30 2 3 2 6 0 17 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1 6 3 4 6 6 -1 7 5 4 -5 5 -2 5 -4 1 2 3 11 4 0 2 9 2 3 2 3 1 6 2 1 0 3 7 4 -2 33 17 3 2 2 2 2 3 2 1 5 6 -1 5 7 -2 2 8 7 -2 7 -5 6 5 2 9 3 3 3 5 1</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 5 7 7 -2 3 23 5 8 1 5 5 6 14 19 7 5 8 5 16 6 10 3 6 18 11 13 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10 1 4 9 15 7 4 31 21 3 2 21 14 6 24 14 9 8 20 14 1 8 32 9 21 3 12 8 3 6 6 27 10 33 5 5 3 7 0 37 7 20 24 1 42 19 0 7 5 10 4 7 9 7 14 5 3 28 7 9 20 7 8 2 6 9 3 8 5 13 8 17 16 8 18 9 8 5 13 -4 4 3 22 5 17 2 36 16 3 5 6</t>
-  </si>
-  <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 -1 4 -3 5 -2 1 1 9 2 2 6 6 3 -1 3 8 0 0 7 3 -1 4 1 1 -1 3 -3 1 0 -5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11 55 2 0 1 -1 14 2 1 4 12 1 9 0 -1 0 1 0 0 11 7 2 4 22 -1 5 3 5 1 -2 10 4 2 -1 2 6 7 19 9 2 -1 2 5 15 4 2 0 3 1 7 -3 9 -5 2 11 6 -1 9 2 14 -4 -3 34 6 5 6</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 8 9 7 40 6 7 33 8 4 3 17 5 7 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6 9 9 13 5 9 12 5 9 24 11 24 19 2 23 11 21 14 4 20 11 6 7 3 2 19 8 3 -2 18 9 1 13 5 1 6 17 6 9 5 15 6 4 3 1 6 0 3 16 1 32 35 6 0 10 28 2 5 7 31 19 17 4 20 16 11</t>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 1 3 1 5 -1 4 3 0 2 3 1 4 9 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 4 6 2 4 0 9 4 3 6 0 2 3 2 2 20 5 6 2 7 0 1 9 2 2 0 1 -1 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 -1 4 13 9 -1 2 -1 0 24 6 2 5 6 3 5 6 0 3 5 8 2 1 3 4 8 6 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 3 6 2 3 5 2 -1 6 6 3 8 0 3 12 30 2 3 2 6 0 17 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1 6 3 4 6 6 -1 7 5 4 -5 5 -2 5 -4 1 2 3 11 4 0 2 9 2 3 2 3 1 6 2 1 0 3 7 4 -2 33 17 3 2 2 2 2 3 2 1 5 6 -1 5 7 -2 2 8 7 -2 7 -5 6 5 2 9 3 3 3 5 1 11 10 2 1 1 3 7 0 -1 1 4 3</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 9 22 16 10 2 8 8 11 3 9 23 -4 10 12 14 18 10 3 6 -4 5 4 4 9 15 0 8 5 4 8 10 2 27 10 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 8 25 12 7 8 8 4 20 31 4 9 7 44 6 7 16 6 6 41 9 7 -1 8 2 12 8 50 11 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 5 7 7 -2 3 23 5 8 1 5 5 6 14 19 7 5 8 5 16 6 10 3 6 18 11 13 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10 1 4 9 15 7 4 31 21 3 2 21 14 6 24 14 9 8 20 14 1 8 32 9 21 3 12 8 3 6 6 27 10 33 5 5 3 7 0 37 7 20 24 1 42 19 0 7 5 10 4 7 9 7 14 5 3 28 7 9 20 7 8 2 6 9 3 8 5 13 8 17 16 8 18 9 8 5 13 -4 4 3 22 5 17 2 36 16 3 5 6 13 29 5 3 9 4 21 8 19 1 5 7 -2 42 11 1 3 9 13 5 9 6 4 -3 19 3 55 5 9</t>
+  </si>
+  <si>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 -4 0 0 0 -1 1 2 4 0 3 1 13 7 4 5 -2 11 1 1 -1 5 6 2 5 -2 9 11 23 14 7 3 -1 2 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 20 10 1 4 3 13 3 1 3 -1 3 3 11 7 1 1 3 2 15 2 4 2 3 6 5 1 22 1 3 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 2 8 6 0 1 3 16 1 2 12 0 9 6 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 -1 4 -3 5 -2 1 1 9 2 2 6 6 3 -1 3 8 0 0 7 3 -1 4 1 1 -1 3 -3 1 0 -5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11 55 2 0 1 -1 14 2 1 4 12 1 9 0 -1 0 1 0 0 11 7 2 4 22 -1 5 3 5 1 -2 10 4 2 -1 2 6 7 19 9 2 -1 2 5 15 4 2 0 3 1 7 -3 9 -5 2 11 6 -1 9 2 14 -4 -3 34 6 5 6 1 4 9 2 0 -3 1 2 3 7 0 5 2 -3 2 0 1 0 3 15 3 8 -3 1 4 4 -1 3 3</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 23 5 6 4 16 2 1 6 -3 24 25 6 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 6 4 5 18 7 16 5 14 12 14 -1 15 1 38 2 14 5 9 4 16 4 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 8 9 7 40 6 7 33 8 4 3 17 5 7 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6 9 9 13 5 9 12 5 9 24 11 24 19 2 23 11 21 14 4 20 11 6 7 3 2 19 8 3 -2 18 9 1 13 5 1 6 17 6 9 5 15 6 4 3 1 6 0 3 16 1 32 35 6 0 10 28 2 5 7 31 19 17 4 20 16 11 6 9 17 20 29 9 9 7 70 6 5 6 4 7 -4 11 7 11 17 13 11 4 10 3 18 0 20 44</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>51 50 44 56 76 64 67 74 73 64 64 69 67 69 66 65 60 63 66 61 60 63 65 62 60 55 64 64 61</t>
-  </si>
-  <si>
-    <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29 27 25 26 26 27 13 25 28 20 29 39 17 16 16 24</t>
-  </si>
-  <si>
-    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7 17 22 7 24 17 34 18</t>
-  </si>
-  <si>
-    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47 40 53 48 45 39 42 30 39 45 40 38 35 39 30 45 42 46 31 50 61 45 61</t>
-  </si>
-  <si>
-    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5 0 34 0 0 4 8 0 0 16 6 0 0 0 0 0 0 0 0 5 0 -1 31</t>
-  </si>
-  <si>
-    <t>0 0 10 0 0 0 0 0 6 11 3 2 9 10 0 0 0 4 9 20 6 5 0 0 3 0 0 4 0 0 1 0 8 4</t>
+    <t>51 50 44 56 76 64 67 74 73 64 64 69 67 69 66 65 60 63 66 61 60 63 65 62 60 55 64 64 61 64 63 64</t>
+  </si>
+  <si>
+    <t>13 19 14 45 27 0 25 33 36 28 19 72 30 29 27 25 26 26 27 13 25 28 20 29 39 17 16 16 24 0 0 19</t>
+  </si>
+  <si>
+    <t>20 41 31 16 24 19 24 24 13 10 17 17 17 19 34 18 13 15 24 30 12 15 33 7 17 22 7 24 17 34 18 20 24 4 14</t>
+  </si>
+  <si>
+    <t>65 42 49 41 48 41 43 57 38 53 39 15 55 38 34 43 41 41 44 42 49 42 46 54 32 40 43 46 35 41 55 40 14 54 55 60 41 32 55 20 39 35 47 40 53 48 45 39 42 30 39 45 40 38 35 39 30 45 42 46 31 50 61 45 61 57 51 55 49</t>
+  </si>
+  <si>
+    <t>0 3 12 0 6 0 5 0 9 0 0 0 0 0 11 6 0 0 0 8 0 13 0 0 0 12 10 0 0 0 0 0 0 9 13 7 0 0 4 0 0 0 5 0 34 0 0 4 8 0 0 16 6 0 0 0 0 0 0 0 0 5 0 -1 31 0 6 21 33</t>
+  </si>
+  <si>
+    <t>0 0 10 0 0 0 0 0 6 11 3 2 9 10 0 0 0 4 9 20 6 5 0 0 3 0 0 4 0 0 1 0 8 4 0 0 5 2</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,28 +689,28 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="M2">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="N2">
         <v>15</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>525</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>290</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,37 +943,37 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>7</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="N2">
         <v>31</v>
@@ -985,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="Q2">
-        <v>528</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>231</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2">
         <v>40</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
